--- a/data/hotels_by_city/Houston/Houston_shard_420.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30163-d141896-Reviews-Knights_Inn_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,366 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r575832048-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>141896</t>
+  </si>
+  <si>
+    <t>575832048</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>House of Horrors</t>
+  </si>
+  <si>
+    <t>My wife and I were horrified with the room. It was dirty, smelled like someone had been smoking in it even though it was supposed to be a non-smoking room, the light fixtures were hanging crooked in the bathroom, the smoke detector had been pulled down, and the bathtub was not clean. There was no way we were going to sleep on that bed. The grounds were in bad shape with trash in the courtyard. The pool was green with algae. We decided at that moment to leave and find another hotel forfeiting the money we spent already on the room at Knights Inn. I can't believe that a property owned by Wyndham Hotels could be so rundown. I will never as long as I live, make this mistake again.This hotel, with the type of people hanging out on the balconies and basically loitering about, reminded me of a pay-by-the-hour hotel. The exterior is in bad need of repairs and paint and the grounds need some serious landscaping attention. Honestly, I don't have the time or words enough to describe the overall conditions there. I think that someone from Wyndham management needs to make a trip to Alvin Texas and have a look at the horror that is mistakenly called a hotel and then fire all management involved with that particular facility and just start over.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My wife and I were horrified with the room. It was dirty, smelled like someone had been smoking in it even though it was supposed to be a non-smoking room, the light fixtures were hanging crooked in the bathroom, the smoke detector had been pulled down, and the bathtub was not clean. There was no way we were going to sleep on that bed. The grounds were in bad shape with trash in the courtyard. The pool was green with algae. We decided at that moment to leave and find another hotel forfeiting the money we spent already on the room at Knights Inn. I can't believe that a property owned by Wyndham Hotels could be so rundown. I will never as long as I live, make this mistake again.This hotel, with the type of people hanging out on the balconies and basically loitering about, reminded me of a pay-by-the-hour hotel. The exterior is in bad need of repairs and paint and the grounds need some serious landscaping attention. Honestly, I don't have the time or words enough to describe the overall conditions there. I think that someone from Wyndham management needs to make a trip to Alvin Texas and have a look at the horror that is mistakenly called a hotel and then fire all management involved with that particular facility and just start over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r488438897-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>488438897</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Good place to be</t>
+  </si>
+  <si>
+    <t>It's a friendly place to be. The staff that I interact with are friendly and nice and tries to help you out in anyway they can. The other maids and laundry person and owners are friendly too. The towels and sheets are always clean when you get them. The outside is quite nice too where I can walk my pets. I would recommend this place</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r485768734-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>485768734</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>I'd recommend knights Inn</t>
+  </si>
+  <si>
+    <t>The staff have been quite nice to deal with, they help in any way they are able. The room was clean upon arrival and they clean each day and give clean linens each day. The outside is kept up nice, they have nice bright lights outside for you to be able to see. The housekeepers have been nice to me and the office staff is friendly, even the maintenance man and the owners that run it are very nice. I've had no problems, if something wasn't working they were quik to get it fixed for me. I would recommend this place to stay, not as expensive as other motels around here. MelissaMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The staff have been quite nice to deal with, they help in any way they are able. The room was clean upon arrival and they clean each day and give clean linens each day. The outside is kept up nice, they have nice bright lights outside for you to be able to see. The housekeepers have been nice to me and the office staff is friendly, even the maintenance man and the owners that run it are very nice. I've had no problems, if something wasn't working they were quik to get it fixed for me. I would recommend this place to stay, not as expensive as other motels around here. MelissaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r290377820-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>290377820</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>This location is run down and dangerous</t>
+  </si>
+  <si>
+    <t>Well let me tell you checked in at 4 Ate dinner took a nap when I woke up at 11 p.m. there were cockroaches on my wall I immediately picked up my room put everything in my truck went to the Office and all they would do was give me another room so I changed rooms at 11:30 p.m. 12 o'clock I'm in my new room and let me tell you the rate they give you is not the rate they charge they charged me $91 30 dollars towards my pet fee I will never ever ever ever stay here again and I highly suggest nobody else stays here either!!!!!!David Bahls This is my new improved room.Like · Reply · 33 minsDavid Bahls Yes this is much better now I get to look forward to a tetanus shot at the emergency room wonderfulMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Well let me tell you checked in at 4 Ate dinner took a nap when I woke up at 11 p.m. there were cockroaches on my wall I immediately picked up my room put everything in my truck went to the Office and all they would do was give me another room so I changed rooms at 11:30 p.m. 12 o'clock I'm in my new room and let me tell you the rate they give you is not the rate they charge they charged me $91 30 dollars towards my pet fee I will never ever ever ever stay here again and I highly suggest nobody else stays here either!!!!!!David Bahls This is my new improved room.Like · Reply · 33 minsDavid Bahls Yes this is much better now I get to look forward to a tetanus shot at the emergency room wonderfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r269961958-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>269961958</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Rundown place</t>
+  </si>
+  <si>
+    <t>My wife put her foot on nails that were sticking out of the floor at the entrance of the bathroom.  Cheap price = cheap service = cheap room !  It's a place to sleep, that's all.  Wanted to make a comment to the receptionist but she looked like she was spaced-out with her funny blue hair colour and weird make-up !    Went in to the Sakura Japanese restaurant, and walked out right away.  The smell of over burned oil just filled the air in the restaurant.  Bad news for good food.  Our room had the same smell coming in from the vents in the bathroom.  The power went off sometime around 5 o'clock in the morning our air conditioning unit went off and it smelled musky in our room when we woke up.Too bad the owner can keep up the maintenance.  It's a great center point to view other things in Alvin, TX.  The coffee was terrible, and the morning breakfast was cereals unhealthy full of sugar. We did skip breakfast from that place.MarcMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My wife put her foot on nails that were sticking out of the floor at the entrance of the bathroom.  Cheap price = cheap service = cheap room !  It's a place to sleep, that's all.  Wanted to make a comment to the receptionist but she looked like she was spaced-out with her funny blue hair colour and weird make-up !    Went in to the Sakura Japanese restaurant, and walked out right away.  The smell of over burned oil just filled the air in the restaurant.  Bad news for good food.  Our room had the same smell coming in from the vents in the bathroom.  The power went off sometime around 5 o'clock in the morning our air conditioning unit went off and it smelled musky in our room when we woke up.Too bad the owner can keep up the maintenance.  It's a great center point to view other things in Alvin, TX.  The coffee was terrible, and the morning breakfast was cereals unhealthy full of sugar. We did skip breakfast from that place.MarcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r236632951-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>236632951</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Train Tracks Warning!</t>
+  </si>
+  <si>
+    <t>In 30 years of travel, this was the worst property condition of anything I have ever seen. There are 2 things that make it unacceptable: 1) It is right next to the train tracks and road intersection. DO NOT plan on getting any sleep as the train blares the horn every 15 mins to half hour all night long. 2) It has derelict residents that live there. These look to all be of the type just out of prison or cant rent an apartment or both. Since I prepaid with Travelocity, I was stuck staying for 2 nights. You have been warned. The interior was clean and the shower was hot, but the property should be demolished. The doors seem to be all rotten from age and weather. The TVS are old cathode tube.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>In 30 years of travel, this was the worst property condition of anything I have ever seen. There are 2 things that make it unacceptable: 1) It is right next to the train tracks and road intersection. DO NOT plan on getting any sleep as the train blares the horn every 15 mins to half hour all night long. 2) It has derelict residents that live there. These look to all be of the type just out of prison or cant rent an apartment or both. Since I prepaid with Travelocity, I was stuck staying for 2 nights. You have been warned. The interior was clean and the shower was hot, but the property should be demolished. The doors seem to be all rotten from age and weather. The TVS are old cathode tube.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r207932377-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>207932377</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>Unless you are absolutely desperate please don't stay in this hovel, the only good services you can guarantee are for drugs or prostitutes. The rooms are disgusting, the cleaners drink whilst on duty, so the rooms are not cleaned properly. There is a manager who can not understand English and is so unhelpful, all he cares about is taking your money. On their website it says continental breakfast BUT they have done away with this, they have also done away with the restaurant on the ground floor where you could purchase a good cooked breakfast,  sadly this is one place that should be flattened and rebuilt.....with a different manager !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Unless you are absolutely desperate please don't stay in this hovel, the only good services you can guarantee are for drugs or prostitutes. The rooms are disgusting, the cleaners drink whilst on duty, so the rooms are not cleaned properly. There is a manager who can not understand English and is so unhelpful, all he cares about is taking your money. On their website it says continental breakfast BUT they have done away with this, they have also done away with the restaurant on the ground floor where you could purchase a good cooked breakfast,  sadly this is one place that should be flattened and rebuilt.....with a different manager !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r205842871-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>205842871</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r205084893-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>205084893</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r172744177-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>172744177</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>NASTY ROOMS</t>
+  </si>
+  <si>
+    <t>The thing I hated about the knight inn they woulden let you check in until 3pm me and my husband had to wait for 3 hours to get in a room. Brakfast was ok but they stop it at 9am. there was a place you can eat there its a new place. THERE FOOD  SUX BAD. To many people doing drugs and cops all the time around there because of people fighing  or the drugs there.AC did't work hot as hell. Rude people that work there the cleaning ladys look into the wideow when open.The TV controller did't work, Bth room had rust aroungd the shower very nasty.They let dogs stay in the room Barking all night. There rooms have a door that goes to the next room SCAREY.I think there Prices should go down to $30 the way the rooms are. There wwif do't work at all the pool nasty smell like crap. This place need to be closed down.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>The thing I hated about the knight inn they woulden let you check in until 3pm me and my husband had to wait for 3 hours to get in a room. Brakfast was ok but they stop it at 9am. there was a place you can eat there its a new place. THERE FOOD  SUX BAD. To many people doing drugs and cops all the time around there because of people fighing  or the drugs there.AC did't work hot as hell. Rude people that work there the cleaning ladys look into the wideow when open.The TV controller did't work, Bth room had rust aroungd the shower very nasty.They let dogs stay in the room Barking all night. There rooms have a door that goes to the next room SCAREY.I think there Prices should go down to $30 the way the rooms are. There wwif do't work at all the pool nasty smell like crap. This place need to be closed down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r169720850-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>169720850</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Good price, but you get what you pay for</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel since it was about 30 miles from the Galveston beaches and was much cheaper than a hotel close to the beach. You get what you pay for. There were holes in the blankets, the T.V. remote barely worked, the volume control on the T.V. didn't work, the key cards to get into the room were extremely temperamental, the shower was rusty, the "breakfast" was cereal without milk, and there was a train that passed by rather frequently. But it was cheap and within 45 minutes of the beach, and it wasn't dirty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r169155487-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>169155487</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Nasty,bedbugs, bad smell, alot if drugs</t>
+  </si>
+  <si>
+    <t>I was n room 144 I had bedbugs it was very nasty the room had a bad smell the pool was nasty. I was there with my family for a vacation the Poilce was there all the time because of the drugs the was not clean when we got there .i will never go there again because it was so bad the kids could not go outside because the people was during drugs there it was a bad place to take ur family there In my family came from KaufmanTx to do a vacation the front desk people was no help cause I had called for table they said they did not have any because they was a cheap place . So I have ask from my money back they she no... I Will NEVER COME .. They need to shut then down very nasty.......Ashley DickeyMoreShow less</t>
+  </si>
+  <si>
+    <t>I was n room 144 I had bedbugs it was very nasty the room had a bad smell the pool was nasty. I was there with my family for a vacation the Poilce was there all the time because of the drugs the was not clean when we got there .i will never go there again because it was so bad the kids could not go outside because the people was during drugs there it was a bad place to take ur family there In my family came from KaufmanTx to do a vacation the front desk people was no help cause I had called for table they said they did not have any because they was a cheap place . So I have ask from my money back they she no... I Will NEVER COME .. They need to shut then down very nasty.......Ashley DickeyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r135077318-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>135077318</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>I wish they had negative numbers to rate this hotel</t>
+  </si>
+  <si>
+    <t>The only pleasant thing about my stay was the girl at the desk who quit the day I checked in. They said there was a pool, but didn't say they let dogs swim in it. I checked out 1 day short of the week I booked and when I left the pool water was turning green. The carpet was soiled and frayed. The microwave and house phone didn't work; the fridge was dirty and the water at the tap wreaked of chlorine. Some of the guest looked like addicts and I kept the door locked and my gun at my bedside. There is a "No refund" policy (unlike most Wyndham hotels), and I was more than willing to lose the money for the day I didn't stay so I could check into the Super 8 off 35. It cost a bit more, but is like a castle compared to the Knights Inn. Oh the Knights Inn also had a Chinese Restaurant once, but the Health Dept. shut it down; someone should do the same to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>The only pleasant thing about my stay was the girl at the desk who quit the day I checked in. They said there was a pool, but didn't say they let dogs swim in it. I checked out 1 day short of the week I booked and when I left the pool water was turning green. The carpet was soiled and frayed. The microwave and house phone didn't work; the fridge was dirty and the water at the tap wreaked of chlorine. Some of the guest looked like addicts and I kept the door locked and my gun at my bedside. There is a "No refund" policy (unlike most Wyndham hotels), and I was more than willing to lose the money for the day I didn't stay so I could check into the Super 8 off 35. It cost a bit more, but is like a castle compared to the Knights Inn. Oh the Knights Inn also had a Chinese Restaurant once, but the Health Dept. shut it down; someone should do the same to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r133916443-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>133916443</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>DON'T stay here!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Had to change rooms, first room(1st floor) was a stinky moldy smokers room, complete with cockroaches.   2nd room (2nd floor facing the pool) took about 3 hours to get the room cold/air conditioned.   The a/c sounded like an 18 wheelers engine running.  Sink had bad peeling from being painted over.  Bed bugs for sure in the pillows.  Mosquitos in the room.   Lumpy box spring mattress.   Bad water damage throughout the room.  OLD carpet.   Microwave wasn't plugged in.   Right across the street is a TRAIN track and the trains sounded their horns ALL night.   Holes in the sheets, they were at least clean.   NO milk for breakfast, but they had 2 sugared cereals to choose from.   No dining room, 1 table with 2 chairs outside the sign in desk.   Bad reception on the television, I couldn't see ABC TV channel clearly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had to change rooms, first room(1st floor) was a stinky moldy smokers room, complete with cockroaches.   2nd room (2nd floor facing the pool) took about 3 hours to get the room cold/air conditioned.   The a/c sounded like an 18 wheelers engine running.  Sink had bad peeling from being painted over.  Bed bugs for sure in the pillows.  Mosquitos in the room.   Lumpy box spring mattress.   Bad water damage throughout the room.  OLD carpet.   Microwave wasn't plugged in.   Right across the street is a TRAIN track and the trains sounded their horns ALL night.   Holes in the sheets, they were at least clean.   NO milk for breakfast, but they had 2 sugared cereals to choose from.   No dining room, 1 table with 2 chairs outside the sign in desk.   Bad reception on the television, I couldn't see ABC TV channel clearly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r120400571-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>120400571</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Do not stay here !</t>
+  </si>
+  <si>
+    <t>this place smells, like mold, the bed had Bed Bugs under the pillow. the sheets had blood spots all over it and the front desk clerk didn't help he said there was nothing can be done and would not refund my money..He was very rude ! so i just left and drove to pearland and had a nice 3 day stay at the sleep inn</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r72830279-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>72830279</t>
+  </si>
+  <si>
+    <t>07/29/2010</t>
+  </si>
+  <si>
+    <t>Nasty,moldy rooms</t>
+  </si>
+  <si>
+    <t>We stayed at the rooms in the middle by the pool.Let me tell you,it was nasty but it was 1am and we were all tired,and kids.Never again will I stay here,the carpet at adjoining rooms was wet.My room the bottom of the tub was black.Both rooms smelled like mold.Commode didnt even flush well.We checked out and found another place to stay.I never really went by trip advisor but I guarantee I will take the advice of others now!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r65956546-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>65956546</t>
+  </si>
+  <si>
+    <t>05/31/2010</t>
+  </si>
+  <si>
+    <t>Bad experience!</t>
+  </si>
+  <si>
+    <t>Our experience was bad.  The first room we stayed in wasn't very clean; there was rust in the bathroom sink;  the room was dark and musty-smelling; the entrance door wouldn't close properly; It had to be slammed hard to close.  
+The second day the a/c wouldn't work.  When I called the desk and asked for help, the clerk sounded confused and said, "I don't know what to do."  He finally offered another room.  That room wasn't any cleaner than the first, but the a/c did work.  However, in the second room, the microwave which is wired into the refrigerator, would not turn off.  It "ticked" constantly.  We turned the dial to "off" and in a few seconds it would start up again.  It was right next to the bed and was intolerable.
+The rooms are so crowded, There's too much furniture. it's hard to get around. The table has two chairs but there's no room to sit at the table.  There's no place to put a suitcase except on the bed.  Also, the head of the bed was about 4 inches lower than the foot.  The sheets had holes.   The TV had apparently been changed because  there was an old TV base on the dresser.  There were holes drilled in the furniture.  There was no bedside lamp on one side of the bed. 
+The two rooms we saw look nothing like the pictures of the rooms in their website.  And...Our experience was bad.  The first room we stayed in wasn't very clean; there was rust in the bathroom sink;  the room was dark and musty-smelling; the entrance door wouldn't close properly; It had to be slammed hard to close.  The second day the a/c wouldn't work.  When I called the desk and asked for help, the clerk sounded confused and said, "I don't know what to do."  He finally offered another room.  That room wasn't any cleaner than the first, but the a/c did work.  However, in the second room, the microwave which is wired into the refrigerator, would not turn off.  It "ticked" constantly.  We turned the dial to "off" and in a few seconds it would start up again.  It was right next to the bed and was intolerable.The rooms are so crowded, There's too much furniture. it's hard to get around. The table has two chairs but there's no room to sit at the table.  There's no place to put a suitcase except on the bed.  Also, the head of the bed was about 4 inches lower than the foot.  The sheets had holes.   The TV had apparently been changed because  there was an old TV base on the dresser.  There were holes drilled in the furniture.  There was no bedside lamp on one side of the bed. The two rooms we saw look nothing like the pictures of the rooms in their website.  And there was a loud train that went through close by during the night, blowing its horn.  The parking lot is only partially paved and is very dusty.  There were only about 8-10 TV stations and the guide on top of the TV had wrong channel numbers.We disliked the place so much, we went home a day early, and of course, their policy says no refunds for early departure.  There must be a lot of people who leave this place early.  I would not recommend this place to anyone.  We saw other nicer motels down the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Our experience was bad.  The first room we stayed in wasn't very clean; there was rust in the bathroom sink;  the room was dark and musty-smelling; the entrance door wouldn't close properly; It had to be slammed hard to close.  
+The second day the a/c wouldn't work.  When I called the desk and asked for help, the clerk sounded confused and said, "I don't know what to do."  He finally offered another room.  That room wasn't any cleaner than the first, but the a/c did work.  However, in the second room, the microwave which is wired into the refrigerator, would not turn off.  It "ticked" constantly.  We turned the dial to "off" and in a few seconds it would start up again.  It was right next to the bed and was intolerable.
+The rooms are so crowded, There's too much furniture. it's hard to get around. The table has two chairs but there's no room to sit at the table.  There's no place to put a suitcase except on the bed.  Also, the head of the bed was about 4 inches lower than the foot.  The sheets had holes.   The TV had apparently been changed because  there was an old TV base on the dresser.  There were holes drilled in the furniture.  There was no bedside lamp on one side of the bed. 
+The two rooms we saw look nothing like the pictures of the rooms in their website.  And...Our experience was bad.  The first room we stayed in wasn't very clean; there was rust in the bathroom sink;  the room was dark and musty-smelling; the entrance door wouldn't close properly; It had to be slammed hard to close.  The second day the a/c wouldn't work.  When I called the desk and asked for help, the clerk sounded confused and said, "I don't know what to do."  He finally offered another room.  That room wasn't any cleaner than the first, but the a/c did work.  However, in the second room, the microwave which is wired into the refrigerator, would not turn off.  It "ticked" constantly.  We turned the dial to "off" and in a few seconds it would start up again.  It was right next to the bed and was intolerable.The rooms are so crowded, There's too much furniture. it's hard to get around. The table has two chairs but there's no room to sit at the table.  There's no place to put a suitcase except on the bed.  Also, the head of the bed was about 4 inches lower than the foot.  The sheets had holes.   The TV had apparently been changed because  there was an old TV base on the dresser.  There were holes drilled in the furniture.  There was no bedside lamp on one side of the bed. The two rooms we saw look nothing like the pictures of the rooms in their website.  And there was a loud train that went through close by during the night, blowing its horn.  The parking lot is only partially paved and is very dusty.  There were only about 8-10 TV stations and the guide on top of the TV had wrong channel numbers.We disliked the place so much, we went home a day early, and of course, their policy says no refunds for early departure.  There must be a lot of people who leave this place early.  I would not recommend this place to anyone.  We saw other nicer motels down the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r18818811-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>18818811</t>
+  </si>
+  <si>
+    <t>08/10/2008</t>
+  </si>
+  <si>
+    <t>Would Not Reccommend</t>
+  </si>
+  <si>
+    <t>We travel often due to my husband's job and have stayed in many hotels. When we called to reserve a room we were told of all the amenities such as wireless internet, laundry room, pool, queen size beds, continental breakfast and so on. Once we arrived we were told there were no down stairs room which we had asked reserved the day before due to my health issues. Once we paid for the room we were told there is a 100% no refund if we were not happy with our room or services. Mind you we were told after we paid not before we paid. Once we were in our room we found the wireless internet does not work properly it continuously logs off after a few minutes. The dryers did not work in the laundry room so we had to leave the hotel after my husband worked a 12 hour day just to do laundry. The beds are doubles not queens it seems as if they are not sure of the difference. The rooms are nice, the pool is in good shape, and the breakfast is okay but the amenities are not what they promise. I would not recommend anyone to stay at this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>We travel often due to my husband's job and have stayed in many hotels. When we called to reserve a room we were told of all the amenities such as wireless internet, laundry room, pool, queen size beds, continental breakfast and so on. Once we arrived we were told there were no down stairs room which we had asked reserved the day before due to my health issues. Once we paid for the room we were told there is a 100% no refund if we were not happy with our room or services. Mind you we were told after we paid not before we paid. Once we were in our room we found the wireless internet does not work properly it continuously logs off after a few minutes. The dryers did not work in the laundry room so we had to leave the hotel after my husband worked a 12 hour day just to do laundry. The beds are doubles not queens it seems as if they are not sure of the difference. The rooms are nice, the pool is in good shape, and the breakfast is okay but the amenities are not what they promise. I would not recommend anyone to stay at this motel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +898,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +930,1207 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_420.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_420.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r596474732-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>141896</t>
+  </si>
+  <si>
+    <t>596474732</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Made it a night.</t>
+  </si>
+  <si>
+    <t>After long drive stopped in, 4th of July weekend so everything was mostly booked. The lady at front desk said she was having problems with someone being loud and letting their kids run around screaming. Then said she had just talked to them again and it was quiet for the moment and suggested another hotel. We called they were booked. We said ok booked this room to sleep. The room wasn't bad it was clean and comfy for what you pay. Yes rundown but get what you pay. Left for food came back and several cops were there many sides of the hotel. Luckily our side was away from the rest and we were never bothered.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>After long drive stopped in, 4th of July weekend so everything was mostly booked. The lady at front desk said she was having problems with someone being loud and letting their kids run around screaming. Then said she had just talked to them again and it was quiet for the moment and suggested another hotel. We called they were booked. We said ok booked this room to sleep. The room wasn't bad it was clean and comfy for what you pay. Yes rundown but get what you pay. Left for food came back and several cops were there many sides of the hotel. Luckily our side was away from the rest and we were never bothered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r584205983-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>584205983</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>HORRIBLE, HORRIBLE, HORRIBLE</t>
+  </si>
+  <si>
+    <t>There are absolutely no redeeming qualities to this place.  The rooms are terrible, run down and just plain gross. The whole property is filthy and covered in trash. No ironing board or in room coffee.   It looks to be housing for recovering addicts or something.  Just avoid this one like the plague.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r575832048-Knights_Inn_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
-    <t>30163</t>
-  </si>
-  <si>
-    <t>141896</t>
-  </si>
-  <si>
     <t>575832048</t>
   </si>
   <si>
@@ -174,9 +219,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>My wife and I were horrified with the room. It was dirty, smelled like someone had been smoking in it even though it was supposed to be a non-smoking room, the light fixtures were hanging crooked in the bathroom, the smoke detector had been pulled down, and the bathtub was not clean. There was no way we were going to sleep on that bed. The grounds were in bad shape with trash in the courtyard. The pool was green with algae. We decided at that moment to leave and find another hotel forfeiting the money we spent already on the room at Knights Inn. I can't believe that a property owned by Wyndham Hotels could be so rundown. I will never as long as I live, make this mistake again.This hotel, with the type of people hanging out on the balconies and basically loitering about, reminded me of a pay-by-the-hour hotel. The exterior is in bad need of repairs and paint and the grounds need some serious landscaping attention. Honestly, I don't have the time or words enough to describe the overall conditions there. I think that someone from Wyndham management needs to make a trip to Alvin Texas and have a look at the horror that is mistakenly called a hotel and then fire all management involved with that particular facility and just start over.More</t>
   </si>
   <si>
@@ -216,12 +258,51 @@
     <t>The staff have been quite nice to deal with, they help in any way they are able. The room was clean upon arrival and they clean each day and give clean linens each day. The outside is kept up nice, they have nice bright lights outside for you to be able to see. The housekeepers have been nice to me and the office staff is friendly, even the maintenance man and the owners that run it are very nice. I've had no problems, if something wasn't working they were quik to get it fixed for me. I would recommend this place to stay, not as expensive as other motels around here. MelissaMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>The staff have been quite nice to deal with, they help in any way they are able. The room was clean upon arrival and they clean each day and give clean linens each day. The outside is kept up nice, they have nice bright lights outside for you to be able to see. The housekeepers have been nice to me and the office staff is friendly, even the maintenance man and the owners that run it are very nice. I've had no problems, if something wasn't working they were quik to get it fixed for me. I would recommend this place to stay, not as expensive as other motels around here. MelissaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r368752295-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>368752295</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Costumer Service goes a long way</t>
+  </si>
+  <si>
+    <t>I was going to book at this hotel due to the cheap rate. I book on online. Called in the next morning to see if they had weekly rates. They told me the price. I told them if they could just rearrange they price. They said," no you have to pay whatever the price you reserved it for. I told here if I cancelled it and called in the reserve if I would get that price. And she yea but in a ride tone. The whole conversation with this woman was not pleasant. She was rude when I asked questions. So, I cancelled my reserve and booked another motel even though I had to pay a little more.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was going to book at this hotel due to the cheap rate. I book on online. Called in the next morning to see if they had weekly rates. They told me the price. I told them if they could just rearrange they price. They said," no you have to pay whatever the price you reserved it for. I told here if I cancelled it and called in the reserve if I would get that price. And she yea but in a ride tone. The whole conversation with this woman was not pleasant. She was rude when I asked questions. So, I cancelled my reserve and booked another motel even though I had to pay a little more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r309622338-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>309622338</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run, Be very careful </t>
+  </si>
+  <si>
+    <t>This was the nastiest, skankiest place I have ever stayed. Room was damp feeling, smelled, had holes in the walls, graffiti written with glow in the dark paint all over bathroom. Toilet rocked, and water smelled out of faucet.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r290377820-Knights_Inn_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -237,12 +318,6 @@
     <t>Well let me tell you checked in at 4 Ate dinner took a nap when I woke up at 11 p.m. there were cockroaches on my wall I immediately picked up my room put everything in my truck went to the Office and all they would do was give me another room so I changed rooms at 11:30 p.m. 12 o'clock I'm in my new room and let me tell you the rate they give you is not the rate they charge they charged me $91 30 dollars towards my pet fee I will never ever ever ever stay here again and I highly suggest nobody else stays here either!!!!!!David Bahls This is my new improved room.Like · Reply · 33 minsDavid Bahls Yes this is much better now I get to look forward to a tetanus shot at the emergency room wonderfulMoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Well let me tell you checked in at 4 Ate dinner took a nap when I woke up at 11 p.m. there were cockroaches on my wall I immediately picked up my room put everything in my truck went to the Office and all they would do was give me another room so I changed rooms at 11:30 p.m. 12 o'clock I'm in my new room and let me tell you the rate they give you is not the rate they charge they charged me $91 30 dollars towards my pet fee I will never ever ever ever stay here again and I highly suggest nobody else stays here either!!!!!!David Bahls This is my new improved room.Like · Reply · 33 minsDavid Bahls Yes this is much better now I get to look forward to a tetanus shot at the emergency room wonderfulMore</t>
   </si>
   <si>
@@ -288,6 +363,39 @@
     <t>In 30 years of travel, this was the worst property condition of anything I have ever seen. There are 2 things that make it unacceptable: 1) It is right next to the train tracks and road intersection. DO NOT plan on getting any sleep as the train blares the horn every 15 mins to half hour all night long. 2) It has derelict residents that live there. These look to all be of the type just out of prison or cant rent an apartment or both. Since I prepaid with Travelocity, I was stuck staying for 2 nights. You have been warned. The interior was clean and the shower was hot, but the property should be demolished. The doors seem to be all rotten from age and weather. The TVS are old cathode tube.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r220856519-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>220856519</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>The absolute most disgusting hotel ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completely old and run down needs to be torn down! Everything in the room was absolutely repulsing from the torn out outlets to the mold stains in the bathroom. Would never ever EVER recommend this place to anyone. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r212610774-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>212610774</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r207932377-Knights_Inn_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -330,6 +438,42 @@
     <t>05/11/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r201444073-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>201444073</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>bad place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking in took about ten minutes. It seems as if they're not up to date on technology, writing everything down. Room was horrible. Carpet was dirty, bathroom was dirty, just overall room was in bad condition. Then to make it even worse, at night Some drunk opens the door to my room, lucky I was there or my stuff could have been stolen. I go and talk to the person at the counter and they tell me he was drunk saying my room bimmer and they just go and open the door for him. He didn't refund my money or anything. Horrible experience. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r196754567-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>196754567</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Steer CLEAR!!</t>
+  </si>
+  <si>
+    <t>This place deserves to be flushed down the toilet, it is a toilet! My gosh the owners must be zombies. How can you offer this kind of crap to any human being?! My room on the second floor was a disgrace. Lets start at the front door. From the inside you can see out all around the door. The rooms carpet had debris on it that must have been accumulating for the last month! The odor of the room was most appalling. The bed was bumpy, the sheets had burn holes in them, hair from other guests was found everywhere! The chair I sat in came apart when I stood up! The lamp shades are stained and torn! The bathroom is decrepit. Metal is rusted and the corroded. The toilet seat was barley attached ans was worn so badly the material was falling out of it! So you could imagine I slept on top of the bed and never used the bathroom. There was no escape plan or lighted exit signs. VERY SCARY PLACE! STEER CLEAR! The only reason I stopped was because I drive a lot, and was very tired. My boss booked the room because it was cheap and very near my destination. He won't be using this place again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This place deserves to be flushed down the toilet, it is a toilet! My gosh the owners must be zombies. How can you offer this kind of crap to any human being?! My room on the second floor was a disgrace. Lets start at the front door. From the inside you can see out all around the door. The rooms carpet had debris on it that must have been accumulating for the last month! The odor of the room was most appalling. The bed was bumpy, the sheets had burn holes in them, hair from other guests was found everywhere! The chair I sat in came apart when I stood up! The lamp shades are stained and torn! The bathroom is decrepit. Metal is rusted and the corroded. The toilet seat was barley attached ans was worn so badly the material was falling out of it! So you could imagine I slept on top of the bed and never used the bathroom. There was no escape plan or lighted exit signs. VERY SCARY PLACE! STEER CLEAR! The only reason I stopped was because I drive a lot, and was very tired. My boss booked the room because it was cheap and very near my destination. He won't be using this place again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r172744177-Knights_Inn_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -384,6 +528,39 @@
     <t>I was n room 144 I had bedbugs it was very nasty the room had a bad smell the pool was nasty. I was there with my family for a vacation the Poilce was there all the time because of the drugs the was not clean when we got there .i will never go there again because it was so bad the kids could not go outside because the people was during drugs there it was a bad place to take ur family there In my family came from KaufmanTx to do a vacation the front desk people was no help cause I had called for table they said they did not have any because they was a cheap place . So I have ask from my money back they she no... I Will NEVER COME .. They need to shut then down very nasty.......Ashley DickeyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r166114049-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>166114049</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Absolutely filthy and disgusting !!!</t>
+  </si>
+  <si>
+    <t>The room was prebooked and we got there after midnight.We needed a break from the 6 hrs already driven straight from Dallas Airport.What a MISTAKE!!! Entered the room and pulled the sheets to reveal a horribly stained mattress with marijuana seeds in seams.Sheets definitely weren't changed.Bathroom was equally disgusting...rust stains and filth with smears of BM on ripped plastic shower curtain.There was no sleep and especially no shower there.Couldn,t even sleep in the vehicle with the multiple police cars  in parking lot and different rooms that night.A TRUE NI9GHTMARE ! DO NOT EVER GO THERE !!!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r154476423-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>154476423</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I too shabby. Good if they are staying for a while. If you are looking for luxury go elsewhere. It was worth what little we paid for. The breakfast was good. The rooms werent too big but at least they didnt smell. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r135077318-Knights_Inn_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -439,6 +616,50 @@
   </si>
   <si>
     <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r117477205-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>117477205</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>not bad for the price</t>
+  </si>
+  <si>
+    <t>this place isn't the best but it's a decent place for the price. Tv, bed, shower... It's not a holiday inn. But it's fine just to get rest and relax.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r114957610-Knights_Inn_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>114957610</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Almost comically bad</t>
+  </si>
+  <si>
+    <t>I have stayed in worse places but only because I have had to sleep rough in the past. I fairness the room was clean but that is about all you can say.
+The shower worked but wasn’t exactly powerful. The water in the tap was a strange off white colour, toilet more drained gently away than flushed and the sink appeared to have some lovely fungus growing through the paintwork.
+The bedspread had holes in it... as did the shower wall and the curtains.  The air conditioner was not only noisy but seemed to only have three settings ‘arctic and loud’ and ‘very noisy and even more arctic’ and ‘off but still quite noisy’.
+The facilities included a semi-cold fridge (Possibly it had given up in despair after seeing the overzealous work of the air con)  a television that boasted HBO (but only showed HBO static) and what was apparently a coffee maker. I assumed it was a coffee maker but I couldn’t swear to it because the brown stuff that came out was nothing I have ever tasted before.
+The advertised amenities included a swimming pool and wi-fi. This is clearly some new usage of the word amenities that has recently been introduced. The swimming pool was described by one of our party as looking as if it was full of Gatorade, this was probably the cause of the health warning on the padlocked gate. The wi-fi on the...I have stayed in worse places but only because I have had to sleep rough in the past. I fairness the room was clean but that is about all you can say.The shower worked but wasn’t exactly powerful. The water in the tap was a strange off white colour, toilet more drained gently away than flushed and the sink appeared to have some lovely fungus growing through the paintwork.The bedspread had holes in it... as did the shower wall and the curtains.  The air conditioner was not only noisy but seemed to only have three settings ‘arctic and loud’ and ‘very noisy and even more arctic’ and ‘off but still quite noisy’.The facilities included a semi-cold fridge (Possibly it had given up in despair after seeing the overzealous work of the air con)  a television that boasted HBO (but only showed HBO static) and what was apparently a coffee maker. I assumed it was a coffee maker but I couldn’t swear to it because the brown stuff that came out was nothing I have ever tasted before.The advertised amenities included a swimming pool and wi-fi. This is clearly some new usage of the word amenities that has recently been introduced. The swimming pool was described by one of our party as looking as if it was full of Gatorade, this was probably the cause of the health warning on the padlocked gate. The wi-fi on the other hand did work... well provided you were prepared to trek to the reception area where you got a weak signal.It said continental breakfast was included but having seen the room and facilities I gave it a miss. I am told that it consisted of bread and a waffle.The people were quite nice on arrival and, in fairness, it was cheap - but not worth it. So if you intend to stay here pop in, say hi the friendly staff, then go somewhere better.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I have stayed in worse places but only because I have had to sleep rough in the past. I fairness the room was clean but that is about all you can say.
+The shower worked but wasn’t exactly powerful. The water in the tap was a strange off white colour, toilet more drained gently away than flushed and the sink appeared to have some lovely fungus growing through the paintwork.
+The bedspread had holes in it... as did the shower wall and the curtains.  The air conditioner was not only noisy but seemed to only have three settings ‘arctic and loud’ and ‘very noisy and even more arctic’ and ‘off but still quite noisy’.
+The facilities included a semi-cold fridge (Possibly it had given up in despair after seeing the overzealous work of the air con)  a television that boasted HBO (but only showed HBO static) and what was apparently a coffee maker. I assumed it was a coffee maker but I couldn’t swear to it because the brown stuff that came out was nothing I have ever tasted before.
+The advertised amenities included a swimming pool and wi-fi. This is clearly some new usage of the word amenities that has recently been introduced. The swimming pool was described by one of our party as looking as if it was full of Gatorade, this was probably the cause of the health warning on the padlocked gate. The wi-fi on the...I have stayed in worse places but only because I have had to sleep rough in the past. I fairness the room was clean but that is about all you can say.The shower worked but wasn’t exactly powerful. The water in the tap was a strange off white colour, toilet more drained gently away than flushed and the sink appeared to have some lovely fungus growing through the paintwork.The bedspread had holes in it... as did the shower wall and the curtains.  The air conditioner was not only noisy but seemed to only have three settings ‘arctic and loud’ and ‘very noisy and even more arctic’ and ‘off but still quite noisy’.The facilities included a semi-cold fridge (Possibly it had given up in despair after seeing the overzealous work of the air con)  a television that boasted HBO (but only showed HBO static) and what was apparently a coffee maker. I assumed it was a coffee maker but I couldn’t swear to it because the brown stuff that came out was nothing I have ever tasted before.The advertised amenities included a swimming pool and wi-fi. This is clearly some new usage of the word amenities that has recently been introduced. The swimming pool was described by one of our party as looking as if it was full of Gatorade, this was probably the cause of the health warning on the padlocked gate. The wi-fi on the other hand did work... well provided you were prepared to trek to the reception area where you got a weak signal.It said continental breakfast was included but having seen the room and facilities I gave it a miss. I am told that it consisted of bread and a waffle.The people were quite nice on arrival and, in fairness, it was cheap - but not worth it. So if you intend to stay here pop in, say hi the friendly staff, then go somewhere better.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d141896-r72830279-Knights_Inn_Alvin-Alvin_Texas.html</t>
@@ -1039,7 +1260,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1047,22 +1268,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1106,7 +1317,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1116,10 +1327,16 @@
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1163,20 +1380,30 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1220,7 +1447,7 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -1228,25 +1455,19 @@
       <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1262,7 +1483,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1271,45 +1492,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1325,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1334,43 +1549,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>74</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1386,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1395,25 +1606,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1427,7 +1638,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1443,7 +1654,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1452,44 +1663,46 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1518,39 +1731,41 @@
       <c r="J10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
         <v>74</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1565,7 +1780,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1574,41 +1789,35 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1616,7 +1825,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1632,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1641,49 +1850,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1699,7 +1898,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1708,46 +1907,44 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>121</v>
-      </c>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,7 +1959,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1771,49 +1968,39 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -1829,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1838,48 +2025,44 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" t="s">
-        <v>133</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s">
-        <v>134</v>
-      </c>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1894,7 +2077,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1903,40 +2086,44 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>136</v>
       </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>140</v>
-      </c>
       <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s">
-        <v>139</v>
-      </c>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1951,7 +2138,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1960,34 +2147,34 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
         <v>142</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>143</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>144</v>
       </c>
-      <c r="L17" t="s">
-        <v>145</v>
-      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2002,7 +2189,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -2018,7 +2205,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2027,43 +2214,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
         <v>148</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>149</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>150</v>
       </c>
-      <c r="L18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>152</v>
-      </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2079,7 +2272,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2088,41 +2281,41 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
         <v>155</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>156</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>157</v>
       </c>
-      <c r="L19" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O19" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2130,7 +2323,777 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
